--- a/dist/propostas_clientes.xlsx
+++ b/dist/propostas_clientes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,22 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Nova Mensalidade (50 CNPJs)</t>
+          <t>Nova Mensalidade</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Nova Mensalidade (100 CNPJs)</t>
+          <t>Proposta Aprovada</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Nova Mensalidade (150 CNPJs)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Proposta Aprovada</t>
+          <t>Lucro</t>
         </is>
       </c>
     </row>
@@ -466,32 +461,59 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nilsom</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 1200.00</t>
+          <t>R$ 2300.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 1300.00</t>
+          <t>R$ 2600.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R$ 1400.00</t>
+          <t>100 CNPJs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>R$ 0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+          <t>R$ 300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R$ 2300.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>R$ 2600.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>100 CNPJs</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>R$ 300.00</t>
         </is>
       </c>
     </row>
